--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H2">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I2">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J2">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N2">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O2">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P2">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q2">
-        <v>0.006219408710666667</v>
+        <v>22.62225353356877</v>
       </c>
       <c r="R2">
-        <v>0.055974678396</v>
+        <v>203.600281802119</v>
       </c>
       <c r="S2">
-        <v>4.619430511272261E-07</v>
+        <v>0.003151540829929161</v>
       </c>
       <c r="T2">
-        <v>4.624927005039889E-07</v>
+        <v>0.003164936425308974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,46 +599,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H3">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I3">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J3">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N3">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O3">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P3">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q3">
-        <v>1.003915547899556</v>
+        <v>0.07554613132216667</v>
       </c>
       <c r="R3">
-        <v>9.035239931096001</v>
+        <v>0.453276787933</v>
       </c>
       <c r="S3">
-        <v>7.456525738136793E-05</v>
+        <v>1.052444740094994E-05</v>
       </c>
       <c r="T3">
-        <v>7.465397989196272E-05</v>
+        <v>7.046120978705209E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H4">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I4">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J4">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N4">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O4">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P4">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q4">
-        <v>6.255660657517223</v>
+        <v>7.719321756404556</v>
       </c>
       <c r="R4">
-        <v>56.300945917655</v>
+        <v>69.473895807641</v>
       </c>
       <c r="S4">
-        <v>0.0004646356438987426</v>
+        <v>0.00107539055110358</v>
       </c>
       <c r="T4">
-        <v>0.000465188497094537</v>
+        <v>0.001079961488773514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H5">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I5">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J5">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N5">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O5">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P5">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q5">
-        <v>5.528319892732</v>
+        <v>3105.980816575323</v>
       </c>
       <c r="R5">
-        <v>49.754879034588</v>
+        <v>27953.82734917791</v>
       </c>
       <c r="S5">
-        <v>0.0004106128215172754</v>
+        <v>0.4326989504334161</v>
       </c>
       <c r="T5">
-        <v>0.0004111013949050274</v>
+        <v>0.434538133351889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H6">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I6">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J6">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N6">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O6">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P6">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q6">
-        <v>892.3623695219654</v>
+        <v>10.372301517395</v>
       </c>
       <c r="R6">
-        <v>8031.261325697688</v>
+        <v>62.23380910436999</v>
       </c>
       <c r="S6">
-        <v>0.06627970838789135</v>
+        <v>0.001444981229827536</v>
       </c>
       <c r="T6">
-        <v>0.06635857222255347</v>
+        <v>0.0009674154061907389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H7">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I7">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J7">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N7">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O7">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P7">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q7">
-        <v>5560.543592483468</v>
+        <v>1059.844248354277</v>
       </c>
       <c r="R7">
-        <v>50044.89233235121</v>
+        <v>9538.59823518849</v>
       </c>
       <c r="S7">
-        <v>0.4130062185224073</v>
+        <v>0.1476485274598176</v>
       </c>
       <c r="T7">
-        <v>0.4134976397269389</v>
+        <v>0.1482761061709972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,46 +909,46 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H8">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I8">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J8">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N8">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O8">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P8">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q8">
-        <v>0.041089295156</v>
+        <v>54.57315065230666</v>
       </c>
       <c r="R8">
-        <v>0.246535770936</v>
+        <v>327.43890391384</v>
       </c>
       <c r="S8">
-        <v>3.051884070663561E-06</v>
+        <v>0.007602669302746845</v>
       </c>
       <c r="T8">
-        <v>2.037010264969589E-06</v>
+        <v>0.005089989585905238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,46 +971,46 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H9">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I9">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J9">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N9">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O9">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P9">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q9">
-        <v>6.632492601522668</v>
+        <v>0.18224490322</v>
       </c>
       <c r="R9">
-        <v>39.794955609136</v>
+        <v>0.72897961288</v>
       </c>
       <c r="S9">
-        <v>0.0004926246226062411</v>
+        <v>2.538881693161324E-05</v>
       </c>
       <c r="T9">
-        <v>0.0003288071859189261</v>
+        <v>1.133188082889743E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H10">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I10">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J10">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N10">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O10">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P10">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q10">
-        <v>41.32879813987167</v>
+        <v>18.62182777329333</v>
       </c>
       <c r="R10">
-        <v>247.97278883923</v>
+        <v>111.73096663976</v>
       </c>
       <c r="S10">
-        <v>0.003069673018820964</v>
+        <v>0.002594235382799395</v>
       </c>
       <c r="T10">
-        <v>0.002048883674693099</v>
+        <v>0.001736841437659925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H11">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I11">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J11">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.076804</v>
+        <v>30.34606566666666</v>
       </c>
       <c r="N11">
-        <v>0.230412</v>
+        <v>91.038197</v>
       </c>
       <c r="O11">
-        <v>0.0008559845391981288</v>
+        <v>0.7437342022026642</v>
       </c>
       <c r="P11">
-        <v>0.000855984539198129</v>
+        <v>0.744350442811843</v>
       </c>
       <c r="Q11">
-        <v>5.948990479917333</v>
+        <v>2155.464333736506</v>
       </c>
       <c r="R11">
-        <v>53.540914319256</v>
+        <v>19399.17900362856</v>
       </c>
       <c r="S11">
-        <v>0.0004418578905590628</v>
+        <v>0.300281041636572</v>
       </c>
       <c r="T11">
-        <v>0.0004423836413276281</v>
+        <v>0.3015573834487397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H12">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I12">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J12">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>12.39743733333333</v>
+        <v>0.1013395</v>
       </c>
       <c r="N12">
-        <v>37.192312</v>
+        <v>0.202679</v>
       </c>
       <c r="O12">
-        <v>0.1381700781601351</v>
+        <v>0.002483671294065179</v>
       </c>
       <c r="P12">
-        <v>0.1381700781601351</v>
+        <v>0.001657152803659562</v>
       </c>
       <c r="Q12">
-        <v>960.2655678268285</v>
+        <v>7.198088880715333</v>
       </c>
       <c r="R12">
-        <v>8642.390110441456</v>
+        <v>43.188533284292</v>
       </c>
       <c r="S12">
-        <v>0.07132317989225614</v>
+        <v>0.001002776799905079</v>
       </c>
       <c r="T12">
-        <v>0.07140804477177073</v>
+        <v>0.0006713593956612203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H13">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I13">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J13">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>77.25167833333333</v>
+        <v>10.35489433333333</v>
       </c>
       <c r="N13">
-        <v>231.755035</v>
+        <v>31.064683</v>
       </c>
       <c r="O13">
-        <v>0.8609739373006667</v>
+        <v>0.2537821265032705</v>
       </c>
       <c r="P13">
-        <v>0.8609739373006668</v>
+        <v>0.2539924043844974</v>
       </c>
       <c r="Q13">
-        <v>5983.666201794647</v>
+        <v>735.5024424015205</v>
       </c>
       <c r="R13">
-        <v>53852.99581615183</v>
+        <v>6619.521981613684</v>
       </c>
       <c r="S13">
-        <v>0.4444334101155399</v>
+        <v>0.10246397310955</v>
       </c>
       <c r="T13">
-        <v>0.4449622254019404</v>
+        <v>0.1028994952870667</v>
       </c>
     </row>
   </sheetData>
